--- a/UserRequirements/Centre Details.xlsx
+++ b/UserRequirements/Centre Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23895" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19440" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Study Centre" sheetId="1" r:id="rId1"/>
@@ -2511,7 +2511,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/UserRequirements/Centre Details.xlsx
+++ b/UserRequirements/Centre Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19440" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19440" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Study Centre" sheetId="1" r:id="rId1"/>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2510,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/UserRequirements/Centre Details.xlsx
+++ b/UserRequirements/Centre Details.xlsx
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2510,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C48"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3054,5 +3054,6 @@
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>